--- a/DATA_goal/Junction_Flooding_95.xlsx
+++ b/DATA_goal/Junction_Flooding_95.xlsx
@@ -446,12 +446,12 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -655,103 +655,103 @@
         <v>41527.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.77</v>
+        <v>4.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.35</v>
+        <v>4.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.55</v>
+        <v>6.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.51</v>
+        <v>2.55</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>268.49</v>
+        <v>26.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.47</v>
+        <v>5.05</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.54</v>
+        <v>3.35</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.08</v>
+        <v>3.01</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.52</v>
+        <v>5.35</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41527.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.16</v>
+        <v>3.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>52.8</v>
+        <v>5.28</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>194.12</v>
+        <v>19.41</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.06</v>
+        <v>3.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.67</v>
+        <v>2.47</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.73</v>
+        <v>4.77</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41527.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q4" s="4" t="n">
         <v>1.57</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>51.43</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>42.55</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>72.17</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>26.51</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>15.71</v>
-      </c>
       <c r="R4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>276.53</v>
+        <v>27.65</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.14</v>
+        <v>5.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.01</v>
+        <v>3.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.67</v>
+        <v>2.17</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>65.25</v>
+        <v>6.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41527.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.44</v>
+        <v>2.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>50.69</v>
+        <v>5.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.93</v>
+        <v>4.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>72.45</v>
+        <v>7.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.86</v>
+        <v>1.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.42</v>
+        <v>2.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.12</v>
+        <v>2.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>271.96</v>
+        <v>27.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.33</v>
+        <v>5.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.52</v>
+        <v>3.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.98</v>
+        <v>3.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.4</v>
+        <v>2.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.61</v>
+        <v>6.56</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41527.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>35.08</v>
+        <v>3.51</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>29.02</v>
+        <v>2.9</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>51.99</v>
+        <v>5.2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>18.08</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>186.11</v>
+        <v>18.61</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>35.6</v>
+        <v>3.56</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>23.9</v>
+        <v>2.39</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>24.79</v>
+        <v>2.48</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>47.1</v>
+        <v>4.71</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41527.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>29.05</v>
+        <v>2.91</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>24.03</v>
+        <v>2.4</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>42.65</v>
+        <v>4.26</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>152.91</v>
+        <v>15.29</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>29.48</v>
+        <v>2.95</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>38.6</v>
+        <v>3.86</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41527.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>49.57</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>40.99</v>
+        <v>4.1</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>68.48999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>265.08</v>
+        <v>26.51</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>50.02</v>
+        <v>5</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.73</v>
+        <v>3.37</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.85</v>
+        <v>1.78</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.5</v>
+        <v>3.35</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>62.03</v>
+        <v>6.2</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.35</v>
+        <v>0.93</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41527.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.62</v>
+        <v>4.56</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.72</v>
+        <v>3.77</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>65.28</v>
+        <v>6.53</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.48</v>
+        <v>2.55</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.39</v>
+        <v>1.84</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.32</v>
+        <v>1.93</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>243.34</v>
+        <v>24.33</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>46.08</v>
+        <v>4.61</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>31.08</v>
+        <v>3.11</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.58</v>
+        <v>3.16</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.28</v>
+        <v>1.93</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>59.22</v>
+        <v>5.92</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41527.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J10" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>37.21</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>5.96</v>
-      </c>
       <c r="K10" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>124.31</v>
+        <v>12.43</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>24.3</v>
+        <v>2.43</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>33.85</v>
+        <v>3.38</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_95.xlsx
+++ b/DATA_goal/Junction_Flooding_95.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.99</v>
+        <v>89.87</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.45</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.33</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.9</v>
+        <v>18.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.09</v>
+        <v>30.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.43</v>
+        <v>124.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.41</v>
+        <v>24.14</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.83</v>
+        <v>28.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.86</v>
+        <v>38.55</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.14</v>
+        <v>31.36</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.22</v>
+        <v>52.25</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.55</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.87</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.44</v>
+        <v>204.41</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.89</v>
+        <v>38.86</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.59</v>
+        <v>25.93</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.64</v>
+        <v>16.38</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.76</v>
+        <v>47.62</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.13</v>
+        <v>31.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.55</v>
+        <v>25.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.51</v>
+        <v>45.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.44</v>
+        <v>164.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.16</v>
+        <v>31.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.09</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.12</v>
+        <v>41.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_95.xlsx
+++ b/DATA_goal/Junction_Flooding_95.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.793</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.95</v>
+        <v>1.946</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.83</v>
+        <v>16.826</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.85</v>
+        <v>4.852</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.5</v>
+        <v>16.497</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.65</v>
+        <v>4.646</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.97</v>
+        <v>6.967</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.74</v>
+        <v>7.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.9</v>
+        <v>2.899</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.1</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.984</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>89.87</v>
+        <v>89.866</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.48</v>
+        <v>17.483</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.77</v>
+        <v>10.767</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.31</v>
+        <v>6.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.916</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.45</v>
+        <v>10.451</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.13</v>
+        <v>5.134</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.81</v>
+        <v>7.806</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.833</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.33</v>
+        <v>14.334</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.06</v>
+        <v>3.055</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.29</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.811</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.08</v>
+        <v>8.076000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.166</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.79</v>
+        <v>23.792</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.99</v>
+        <v>18.988</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.87</v>
+        <v>7.867</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.87</v>
+        <v>30.875</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.164</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.31</v>
+        <v>6.305</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.08</v>
+        <v>8.084</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.6</v>
+        <v>9.602</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.37</v>
+        <v>10.373</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.16</v>
+        <v>3.159</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.83</v>
+        <v>11.832</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.62</v>
+        <v>7.621</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>124.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.14</v>
+        <v>24.139</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.78</v>
+        <v>15.779</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.624000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.156</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.6</v>
+        <v>16.602</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.98</v>
+        <v>6.981</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.42</v>
+        <v>6.423</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.71</v>
+        <v>7.714</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.26</v>
+        <v>10.258</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.915</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.29</v>
+        <v>28.291</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.42</v>
+        <v>4.419</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.91</v>
+        <v>9.907</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>17.6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.19</v>
+        <v>13.186</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.141</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.55</v>
+        <v>38.555</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.36</v>
+        <v>31.356</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.41</v>
+        <v>13.415</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>52.25</v>
+        <v>52.245</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.36</v>
+        <v>21.361</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.93</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.78</v>
+        <v>13.776</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.5</v>
+        <v>15.498</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.55</v>
+        <v>16.554</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.72</v>
+        <v>4.715</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.52</v>
+        <v>19.523</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.87</v>
+        <v>11.867</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.355</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.41</v>
+        <v>204.409</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.86</v>
+        <v>38.865</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.93</v>
+        <v>25.935</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.86</v>
+        <v>13.863</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.53</v>
+        <v>26.532</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.12</v>
+        <v>10.123</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.99</v>
+        <v>11.994</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.38</v>
+        <v>16.376</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.618</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>47.62</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.26</v>
+        <v>7.257</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.99</v>
+        <v>15.989</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.12</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_95.xlsx
+++ b/DATA_goal/Junction_Flooding_95.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -967,103 +967,207 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.27</v>
+        <v>14.274</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.69</v>
+        <v>10.694</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.904</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.29</v>
+        <v>31.287</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.45</v>
+        <v>25.452</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.901</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.11</v>
+        <v>45.106</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.32</v>
+        <v>17.321</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>8.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.18</v>
+        <v>11.178</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.57</v>
+        <v>12.571</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.43</v>
+        <v>13.425</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.81</v>
+        <v>3.808</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>9.616</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.261</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.36</v>
+        <v>164.359</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.58</v>
+        <v>31.583</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.09</v>
+        <v>21.093</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.25</v>
+        <v>11.254</v>
       </c>
       <c r="Y5" s="4" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>22.375</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>9.138999999999999</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>8.204000000000001</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>9.702999999999999</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>13.266</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>41.162</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>5.904</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>12.957</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>1.48</v>
       </c>
-      <c r="Z5" s="4" t="n">
-        <v>22.38</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>12.96</v>
+      <c r="AB6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_95.xlsx
+++ b/DATA_goal/Junction_Flooding_95.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
@@ -967,207 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.274</v>
+        <v>14.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.694</v>
+        <v>10.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.904</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.287</v>
+        <v>31.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.452</v>
+        <v>25.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.901</v>
+        <v>10.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.106</v>
+        <v>45.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.321</v>
+        <v>17.32</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>8.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.178</v>
+        <v>11.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.571</v>
+        <v>12.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.425</v>
+        <v>13.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.808</v>
+        <v>3.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.279</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.858</v>
+        <v>15.86</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.616</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.261</v>
+        <v>0.26</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.359</v>
+        <v>164.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.583</v>
+        <v>31.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.411</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.093</v>
+        <v>21.09</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.254</v>
+        <v>11.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.485</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.375</v>
+        <v>22.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.138999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.204000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.702999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.266</v>
+        <v>13.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.162</v>
+        <v>41.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.904</v>
+        <v>5.9</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.957</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.12</v>
+        <v>12.96</v>
       </c>
     </row>
   </sheetData>
